--- a/performanceTracker.xlsx
+++ b/performanceTracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\School\CPEN211\CPEN211-Lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471C45A0-B4E6-4301-9FA4-D5FDC7F66DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24512212-9A77-4D2E-91E0-F3FDFC41F8A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{63DD6511-F0B4-4013-8D98-A678DD28F81D}"/>
   </bookViews>
   <sheets>
     <sheet name="OG" sheetId="1" r:id="rId1"/>
+    <sheet name="scrnsht" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Number of Cycles</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CPI</t>
   </si>
@@ -48,19 +48,31 @@
     <t>Performance</t>
   </si>
   <si>
-    <t>Instruction Count (Load)</t>
-  </si>
-  <si>
-    <t>*manually count</t>
-  </si>
-  <si>
-    <t>*from given code</t>
-  </si>
-  <si>
-    <t>*add cycles (time?) and number of load instructions (IC?)</t>
-  </si>
-  <si>
-    <t>*repeat for diff shift parameter in new sheet</t>
+    <t>OG (number of cycles to execute a nested loop)</t>
+  </si>
+  <si>
+    <t>CPU Cycles</t>
+  </si>
+  <si>
+    <t>Instruction Count</t>
+  </si>
+  <si>
+    <t>Number of load instructions</t>
+  </si>
+  <si>
+    <t>Level 1 data cache misses</t>
+  </si>
+  <si>
+    <t>LSL #2</t>
+  </si>
+  <si>
+    <t>LSL #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock frequency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructions per cycle </t>
   </si>
 </sst>
 </file>
@@ -109,12 +121,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -132,6 +147,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190511</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFA04D4-1CC8-45FE-A387-00C9AD921509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="180975"/>
+          <a:ext cx="1485911" cy="2638444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163817</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA61CDEE-F3EC-4107-ABF2-3A26FA925C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2587037" y="182269"/>
+          <a:ext cx="1457336" cy="2628919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>154293</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5309BB84-B64A-413D-B490-61D6D31D75AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4527315" y="182269"/>
+          <a:ext cx="1447811" cy="2638444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173343</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CA8D8C-6717-44F7-A731-44A96918BF8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467593" y="182269"/>
+          <a:ext cx="1466861" cy="2638444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>646759</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182867</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC15635-BDD5-4F53-8D18-66ECC5F3BFCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8407870" y="182269"/>
+          <a:ext cx="1476386" cy="2638444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,69 +671,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5385600B-0857-4133-A040-2DCD51E5BFCC}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.1328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="34.5" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="E2" s="2" t="e">
-        <f>B3*C2*D2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="2" t="e">
-        <f>1/E2</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="105.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3762</v>
+      </c>
+      <c r="C2" s="2">
+        <v>514</v>
+      </c>
+      <c r="D2" s="2">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2">
+        <f>$D$18</f>
+        <v>2088</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2/C2</f>
+        <v>7.3190661478599219</v>
+      </c>
+      <c r="G2" s="3">
+        <f>1/$D$17</f>
+        <v>1.25E-9</v>
+      </c>
+      <c r="H2" s="3">
+        <f>E2*F2*G2</f>
+        <v>1.9102762645914399E-5</v>
+      </c>
+      <c r="I2" s="2">
+        <f>1/H2</f>
+        <v>52348.449202653675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B3" s="2">
+        <v>3730</v>
+      </c>
+      <c r="C3" s="2">
+        <v>514</v>
+      </c>
+      <c r="D3" s="2">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E8" si="0">$D$18</f>
+        <v>2088</v>
+      </c>
+      <c r="F3" s="2">
+        <f>B3/C3</f>
+        <v>7.2568093385214008</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G8" si="1">1/$D$17</f>
+        <v>1.25E-9</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H8" si="2">E3*F3*G3</f>
+        <v>1.8940272373540858E-5</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I8" si="3">1/H3</f>
+        <v>52797.551179727379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B4" s="2">
+        <v>3732</v>
+      </c>
+      <c r="C4" s="2">
+        <v>514</v>
+      </c>
+      <c r="D4" s="2">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>2088</v>
+      </c>
+      <c r="F4" s="2">
+        <f>B4/C4</f>
+        <v>7.2607003891050583</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.25E-9</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8950428015564204E-5</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>52769.25667212838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3337</v>
+      </c>
+      <c r="C6" s="2">
+        <v>513</v>
+      </c>
+      <c r="D6" s="2">
+        <v>255</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>2088</v>
+      </c>
+      <c r="F6" s="2">
+        <f>B6/C6</f>
+        <v>6.5048732943469787</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.25E-9</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6977719298245617E-5</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>58900.726442292776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B7" s="2">
+        <v>3339</v>
+      </c>
+      <c r="C7" s="2">
+        <v>513</v>
+      </c>
+      <c r="D7" s="2">
+        <v>255</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2088</v>
+      </c>
+      <c r="F7" s="2">
+        <f>B7/C7</f>
+        <v>6.5087719298245617</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.25E-9</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6987894736842107E-5</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>58865.44598320785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B8" s="2">
+        <v>3343</v>
+      </c>
+      <c r="C8" s="2">
+        <v>513</v>
+      </c>
+      <c r="D8" s="2">
+        <v>255</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>2088</v>
+      </c>
+      <c r="F8" s="2">
+        <f>B8/C8</f>
+        <v>6.5165692007797267</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.25E-9</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7008245614035086E-5</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>58795.01170742778</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3">
+        <v>800000000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="34.9" x14ac:dyDescent="0.5">
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <f>2*(4*256+4)+32</f>
+        <v>2088</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A05CD0-9325-4A6F-86B6-B06D8827A38C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>